--- a/site/downloads/concorrencia_2026.xlsx
+++ b/site/downloads/concorrencia_2026.xlsx
@@ -21,7 +21,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UNIFESP" sheetId="12" state="visible" r:id="rId12"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UNICAMP" sheetId="13" state="visible" r:id="rId13"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Instituto do Câncer do Ceará – " sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Enare" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UFPA" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Enare" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5928,6 +5929,377 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PROGRAMA</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>VAGAS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>INSCRITOS</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>CONCORRÊNCIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Clínica Médica (Belém)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Clínica Médica (Altamira)</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Cirurgia Geral (Belém)</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Dermatologia (Belém)</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Ginecologia e Obstetrícia (Belém)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15,83</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Medicina de Família e Comunidade (Belém)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Medicina de Família e Comunidade (Altamira)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Oftalmologia (Belém)</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Otorrinolaringologia (Belém)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>22,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Pediatria (Belém)</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Endocrinologia (Belém)</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Geriatria (Belém)</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Oncologia Clínica (Belém)</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Pneumologia (Belém)</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Medicina Paliativa (Belém)</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/site/downloads/concorrencia_2026.xlsx
+++ b/site/downloads/concorrencia_2026.xlsx
@@ -13,16 +13,17 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SMS-Curitiba" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UFCSPA" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UEL" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HIAE" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HOS BOS" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Santa Casa de Limeira" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SES-RJ" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UERJ" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UNIFESP" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UNICAMP" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Instituto do Câncer do Ceará – " sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UFPA" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Enare" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UNESP" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HIAE" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HOS BOS" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Santa Casa de Limeira" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SES-RJ" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UERJ" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UNIFESP" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UNICAMP" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Instituto do Câncer do Ceará – " sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UFPA" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Enare" sheetId="17" state="visible" r:id="rId17"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2511,6 +2512,443 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PROGRAMA</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>VAGAS TOTAIS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>INSCRITOS</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>CONCORRÊNCIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Anestesiologia</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Angiorradiologia e Cirurgia Endovascular</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Cardiologia</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Cirurgia Cardiovascular</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Cirurgia Geral</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Cirurgia Vascular</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Clínica Médica</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>41,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Ginecologia e Obstetrícia</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>43,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Medicina de Família e Comunidade</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Medicina Intensiva Pediátrica</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Neonatologia</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Neurocirurgia</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Oftalmologia</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>48,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Oncologia Clínica</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Ortopedia e Traumatologia</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>31,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Otorrinolaringologia</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Pediatria</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>39,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Urologia</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4252,7 +4690,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4450,619 +4888,6 @@
       <c r="C11" t="inlineStr">
         <is>
           <t>40,5</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>PROGRAMA</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>TOTAL VAGAS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>TOTAL INSCRITOS</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>CONCORRÊNCIA GERAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Acupuntura</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5,3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Anestesiologia</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>339</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>33,9</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Cirurgia Cardiovascular</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Cirurgia Geral</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>704</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Clínica Médica</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>905</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>17,4</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Dermatologia</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>370</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>46,3</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Genética Médica</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>17,5</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Infectologia</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Medicina de Emergência</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>5,8</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Medicina de Família e Comunidade</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>8,5</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Medicina de Tráfego</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0,7</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Medicina Esportiva</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>142</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>28,4</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Medicina Intensiva</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>5,6</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Medicina Preventiva e Social</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Neurocirurgia</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Neurologia</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>260</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>37,1</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Obstetrícia e Ginecologia</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>454</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>37,8</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Oftalmologia</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>443</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>36,9</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Ortopedia e Traumatologia</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>319</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>19,9</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Otorrinolaringologia</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>260</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>43,3</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Patologia</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>15,5</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Patologia Clínica e Medicina Laboratorial</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2,5</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Pediatria</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>310</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>17,2</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Psiquiatria</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>552</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>36,8</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Radiologia e Diagnóstico por Imagem</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>232</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>19,3</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Radioterapia</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
     </row>
@@ -5088,139 +4913,139 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>PROGRAMAS ACESSO DIRETO</t>
+          <t>PROGRAMA</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>CANDIDATOS</t>
+          <t>TOTAL VAGAS</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>VAGAS DISPONÍVEIS</t>
+          <t>TOTAL INSCRITOS</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>CONCORRÊNCIA</t>
+          <t>CONCORRÊNCIA GERAL</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ANESTESIOLOGIA</t>
+          <t>Acupuntura</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24,10</t>
+          <t>5,3</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CIRURGIA CARDIOVASCULAR</t>
+          <t>Anestesiologia</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>339</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18,00</t>
+          <t>33,9</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CIRURGIA GERAL</t>
+          <t>Cirurgia Cardiovascular</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>40,25</t>
+          <t>18</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CLINICA MEDICA</t>
+          <t>Cirurgia Geral</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>704</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>15,54</t>
+          <t>44</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DERMATOLOGIA</t>
+          <t>Clínica Médica</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>52</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>905</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>48,80</t>
+          <t>17,4</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DERMATOLOGIA – COMPROMISSO SOCIAL</t>
+          <t>Dermatologia</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -5230,452 +5055,452 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>370</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>46,3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GENETICA MEDICA</t>
+          <t>Genética Médica</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>17,5</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>INFECTOLOGIA</t>
+          <t>Infectologia</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>7,80</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MEDICINA DE EMERGENCIA</t>
+          <t>Medicina de Emergência</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4,75</t>
+          <t>5,8</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MEDICINA DE FAMILIA E COMUNIDADE</t>
+          <t>Medicina de Família e Comunidade</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10,07</t>
+          <t>8,5</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MEDICINA DO TRABALHO</t>
+          <t>Medicina de Tráfego</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>7,25</t>
+          <t>0,7</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MEDICINA INTENSIVA</t>
+          <t>Medicina Esportiva</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>142</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5,71</t>
+          <t>28,4</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MEDICINA NUCLEAR</t>
+          <t>Medicina Intensiva</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>8,33</t>
+          <t>5,6</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MEDICINA PREVENTIVA E SOCIAL</t>
+          <t>Medicina Preventiva e Social</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>NEUROCIRURGIA</t>
+          <t>Neurocirurgia</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>204</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>56,00</t>
+          <t>68</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>NEUROLOGIA</t>
+          <t>Neurologia</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>260</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>33,14</t>
+          <t>37,1</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>OBSTETRICIA E GINECOLOGIA</t>
+          <t>Obstetrícia e Ginecologia</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>454</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>27,57</t>
+          <t>37,8</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>OFTALMOLOGIA</t>
+          <t>Oftalmologia</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>443</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>31,50</t>
+          <t>36,9</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ORTOPEDIA E TRAUMATOLOGIA</t>
+          <t>Ortopedia e Traumatologia</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>319</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>20,57</t>
+          <t>19,9</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>OTORRINOLARINGOLOGIA</t>
+          <t>Otorrinolaringologia</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>260</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>52,00</t>
+          <t>43,3</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>PATOLOGIA</t>
+          <t>Patologia</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>14,25</t>
+          <t>15,5</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>PATOLOGIA CLINICA/MEDICINA LABORATORIAL</t>
+          <t>Patologia Clínica e Medicina Laboratorial</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>2,5</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>PEDIATRIA</t>
+          <t>Pediatria</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>310</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>13,19</t>
+          <t>17,2</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>PSIQUIATRIA</t>
+          <t>Psiquiatria</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>552</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>43,00</t>
+          <t>36,8</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>RADIOLOGIA E DIAGNOSTICO POR IMAGEM</t>
+          <t>Radiologia e Diagnóstico por Imagem</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>232</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>21,43</t>
+          <t>19,3</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>RADIOTERAPIA</t>
+          <t>Radioterapia</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -5685,6 +5510,619 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PROGRAMAS ACESSO DIRETO</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>CANDIDATOS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>VAGAS DISPONÍVEIS</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>CONCORRÊNCIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ANESTESIOLOGIA</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24,10</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CIRURGIA CARDIOVASCULAR</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>40,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CLINICA MEDICA</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>575</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15,54</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>DERMATOLOGIA</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>48,80</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>DERMATOLOGIA – COMPROMISSO SOCIAL</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>GENETICA MEDICA</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>INFECTOLOGIA</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7,80</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MEDICINA DE EMERGENCIA</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MEDICINA DE FAMILIA E COMUNIDADE</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10,07</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MEDICINA DO TRABALHO</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MEDICINA INTENSIVA</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MEDICINA NUCLEAR</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MEDICINA PREVENTIVA E SOCIAL</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>NEUROCIRURGIA</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>56,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>NEUROLOGIA</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>33,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>OBSTETRICIA E GINECOLOGIA</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>386</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>27,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>OFTALMOLOGIA</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>31,50</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ORTOPEDIA E TRAUMATOLOGIA</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>20,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>OTORRINOLARINGOLOGIA</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>52,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>PATOLOGIA</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>14,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>PATOLOGIA CLINICA/MEDICINA LABORATORIAL</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>PEDIATRIA</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>13,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>PSIQUIATRIA</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>43,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>RADIOLOGIA E DIAGNOSTICO POR IMAGEM</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>21,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>RADIOTERAPIA</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5923,7 +6361,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6294,7 +6732,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8988,6 +9426,333 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Especialidade</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Inscritos</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Vagas</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Concorrência</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Anestesiologia</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Cardiologia</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Cirurgia Cardiovascular</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Cirurgia da Mão</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Cirurgia do Aparelho Digestivo</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Cirurgia Geral</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>498</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>38.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Cirurgia Oncológica</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Cirurgia Pediátrica</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Cirurgia Plástica</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Cirurgia Torácica</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Cirurgia Vascular</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Clínica Médica</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>663</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>22.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Dermatologia</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>58.33</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9243,7 +10008,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9326,441 +10091,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>PROGRAMA</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>VAGAS TOTAIS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>INSCRITOS</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>CONCORRÊNCIA</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Anestesiologia</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>205</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Angiorradiologia e Cirurgia Endovascular</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0,33</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Cardiologia</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Cirurgia Cardiovascular</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Cirurgia Geral</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>196</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Cirurgia Vascular</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4,33</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Clínica Médica</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>166</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>41,5</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Ginecologia e Obstetrícia</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>216</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>43,2</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Medicina de Família e Comunidade</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>7,67</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Medicina Intensiva Pediátrica</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Neonatologia</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1,33</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Neurocirurgia</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Oftalmologia</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>48,5</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Oncologia Clínica</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Ortopedia e Traumatologia</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>127</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>31,75</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Otorrinolaringologia</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Pediatria</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>157</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>39,25</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Urologia</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/site/downloads/concorrencia_2026.xlsx
+++ b/site/downloads/concorrencia_2026.xlsx
@@ -13,17 +13,18 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SMS-Curitiba" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UFCSPA" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UEL" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UNESP" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HIAE" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HOS BOS" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Santa Casa de Limeira" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SES-RJ" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UERJ" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UNIFESP" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UNICAMP" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Instituto do Câncer do Ceará – " sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UFPA" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Enare" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="USP-SP" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UNESP" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HIAE" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HOS BOS" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Santa Casa de Limeira" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SES-RJ" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UERJ" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UNIFESP" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UNICAMP" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Instituto do Câncer do Ceará – " sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UFPA" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Enare" sheetId="18" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2512,6 +2513,91 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Especialidade</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Inscritos</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Vagas</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Cand/Vaga</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Oftalmologia</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>705</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>88,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Otorrinolaringologia</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>78,33</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2943,7 +3029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4690,7 +4776,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4888,619 +4974,6 @@
       <c r="C11" t="inlineStr">
         <is>
           <t>40,5</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>PROGRAMA</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>TOTAL VAGAS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>TOTAL INSCRITOS</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>CONCORRÊNCIA GERAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Acupuntura</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5,3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Anestesiologia</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>339</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>33,9</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Cirurgia Cardiovascular</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Cirurgia Geral</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>704</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Clínica Médica</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>905</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>17,4</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Dermatologia</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>370</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>46,3</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Genética Médica</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>17,5</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Infectologia</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Medicina de Emergência</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>5,8</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Medicina de Família e Comunidade</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>8,5</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Medicina de Tráfego</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0,7</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Medicina Esportiva</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>142</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>28,4</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Medicina Intensiva</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>5,6</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Medicina Preventiva e Social</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Neurocirurgia</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Neurologia</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>260</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>37,1</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Obstetrícia e Ginecologia</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>454</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>37,8</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Oftalmologia</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>443</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>36,9</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Ortopedia e Traumatologia</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>319</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>19,9</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Otorrinolaringologia</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>260</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>43,3</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Patologia</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>15,5</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Patologia Clínica e Medicina Laboratorial</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2,5</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Pediatria</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>310</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>17,2</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Psiquiatria</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>552</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>36,8</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Radiologia e Diagnóstico por Imagem</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>232</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>19,3</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Radioterapia</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
     </row>
@@ -5526,139 +4999,139 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>PROGRAMAS ACESSO DIRETO</t>
+          <t>PROGRAMA</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>CANDIDATOS</t>
+          <t>TOTAL VAGAS</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>VAGAS DISPONÍVEIS</t>
+          <t>TOTAL INSCRITOS</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>CONCORRÊNCIA</t>
+          <t>CONCORRÊNCIA GERAL</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ANESTESIOLOGIA</t>
+          <t>Acupuntura</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24,10</t>
+          <t>5,3</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CIRURGIA CARDIOVASCULAR</t>
+          <t>Anestesiologia</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>339</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18,00</t>
+          <t>33,9</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CIRURGIA GERAL</t>
+          <t>Cirurgia Cardiovascular</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>40,25</t>
+          <t>18</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CLINICA MEDICA</t>
+          <t>Cirurgia Geral</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>704</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>15,54</t>
+          <t>44</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DERMATOLOGIA</t>
+          <t>Clínica Médica</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>52</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>905</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>48,80</t>
+          <t>17,4</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DERMATOLOGIA – COMPROMISSO SOCIAL</t>
+          <t>Dermatologia</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -5668,452 +5141,452 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>370</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>46,3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GENETICA MEDICA</t>
+          <t>Genética Médica</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>17,5</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>INFECTOLOGIA</t>
+          <t>Infectologia</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>7,80</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MEDICINA DE EMERGENCIA</t>
+          <t>Medicina de Emergência</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4,75</t>
+          <t>5,8</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MEDICINA DE FAMILIA E COMUNIDADE</t>
+          <t>Medicina de Família e Comunidade</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10,07</t>
+          <t>8,5</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MEDICINA DO TRABALHO</t>
+          <t>Medicina de Tráfego</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>7,25</t>
+          <t>0,7</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MEDICINA INTENSIVA</t>
+          <t>Medicina Esportiva</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>142</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5,71</t>
+          <t>28,4</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MEDICINA NUCLEAR</t>
+          <t>Medicina Intensiva</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>8,33</t>
+          <t>5,6</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MEDICINA PREVENTIVA E SOCIAL</t>
+          <t>Medicina Preventiva e Social</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>NEUROCIRURGIA</t>
+          <t>Neurocirurgia</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>204</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>56,00</t>
+          <t>68</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>NEUROLOGIA</t>
+          <t>Neurologia</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>260</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>33,14</t>
+          <t>37,1</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>OBSTETRICIA E GINECOLOGIA</t>
+          <t>Obstetrícia e Ginecologia</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>454</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>27,57</t>
+          <t>37,8</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>OFTALMOLOGIA</t>
+          <t>Oftalmologia</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>443</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>31,50</t>
+          <t>36,9</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ORTOPEDIA E TRAUMATOLOGIA</t>
+          <t>Ortopedia e Traumatologia</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>319</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>20,57</t>
+          <t>19,9</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>OTORRINOLARINGOLOGIA</t>
+          <t>Otorrinolaringologia</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>260</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>52,00</t>
+          <t>43,3</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>PATOLOGIA</t>
+          <t>Patologia</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>14,25</t>
+          <t>15,5</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>PATOLOGIA CLINICA/MEDICINA LABORATORIAL</t>
+          <t>Patologia Clínica e Medicina Laboratorial</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>2,5</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>PEDIATRIA</t>
+          <t>Pediatria</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>310</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>13,19</t>
+          <t>17,2</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>PSIQUIATRIA</t>
+          <t>Psiquiatria</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>552</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>43,00</t>
+          <t>36,8</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>RADIOLOGIA E DIAGNOSTICO POR IMAGEM</t>
+          <t>Radiologia e Diagnóstico por Imagem</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>232</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>21,43</t>
+          <t>19,3</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>RADIOTERAPIA</t>
+          <t>Radioterapia</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -6123,6 +5596,619 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PROGRAMAS ACESSO DIRETO</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>CANDIDATOS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>VAGAS DISPONÍVEIS</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>CONCORRÊNCIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ANESTESIOLOGIA</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24,10</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CIRURGIA CARDIOVASCULAR</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>40,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CLINICA MEDICA</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>575</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15,54</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>DERMATOLOGIA</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>48,80</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>DERMATOLOGIA – COMPROMISSO SOCIAL</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>GENETICA MEDICA</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>INFECTOLOGIA</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7,80</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MEDICINA DE EMERGENCIA</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MEDICINA DE FAMILIA E COMUNIDADE</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10,07</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MEDICINA DO TRABALHO</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MEDICINA INTENSIVA</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MEDICINA NUCLEAR</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MEDICINA PREVENTIVA E SOCIAL</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>NEUROCIRURGIA</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>56,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>NEUROLOGIA</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>33,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>OBSTETRICIA E GINECOLOGIA</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>386</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>27,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>OFTALMOLOGIA</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>31,50</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ORTOPEDIA E TRAUMATOLOGIA</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>20,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>OTORRINOLARINGOLOGIA</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>52,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>PATOLOGIA</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>14,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>PATOLOGIA CLINICA/MEDICINA LABORATORIAL</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>PEDIATRIA</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>13,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>PSIQUIATRIA</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>43,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>RADIOLOGIA E DIAGNOSTICO POR IMAGEM</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>21,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>RADIOTERAPIA</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6361,7 +6447,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6732,7 +6818,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9426,6 +9512,217 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Especialidade</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Relação Candidato/Vaga</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Otorrinolaringologia</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>70,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Neurocirurgia</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>50,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Dermatologia</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>48,6</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Cirurgia Geral</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>42,32</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Psiquiatria</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>40,61</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Obstetrícia e Ginecologia</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>38,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Oftalmologia</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>37,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Cirurgia Plástica</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>28,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Medicina do Trabalho</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Ortopedia e Traumatologia</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>24,61</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Neurologia</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>24,18</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Medicina Esportiva</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>24,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Anestesiologia</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>20,91</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Clínica Médica</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>20,91</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Urologia</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>17,2</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9747,7 +10044,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10006,89 +10303,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Especialidade</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Inscritos</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Vagas</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Cand/Vaga</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Oftalmologia</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>705</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>88,12</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Otorrinolaringologia</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>235</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>78,33</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/site/downloads/concorrencia_2026.xlsx
+++ b/site/downloads/concorrencia_2026.xlsx
@@ -24434,17 +24434,17 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>DATA</t>
+          <t>PROGRAMA</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>HORÁRIO</t>
+          <t>VAGAS</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>EVENTO</t>
+          <t>INSCRITOS</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -24456,17 +24456,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>13/10/2025</t>
+          <t>Cancerologia Cirúrgica*</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>19h</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gabarito ICC 2026</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">

--- a/site/downloads/concorrencia_2026.xlsx
+++ b/site/downloads/concorrencia_2026.xlsx
@@ -16936,7 +16936,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>387</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -16946,7 +16946,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>27,57</t>
+          <t>27,64</t>
         </is>
       </c>
     </row>
@@ -18052,7 +18052,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>74</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -18062,7 +18062,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>36,50</t>
+          <t>37,00</t>
         </is>
       </c>
     </row>

--- a/site/downloads/concorrencia_2026.xlsx
+++ b/site/downloads/concorrencia_2026.xlsx
@@ -18,30 +18,31 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Concorrência UEL 2026" sheetId="9" state="visible" r:id="rId9"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HONPAR" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hospital Pequeno Príncipe" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Relação candidato vaga residênc" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="USP-SP — Acesso Direto" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="USP-SP — Pré-Requisito" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="USP-SP — Pré-Requisito – Especi" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="USP-SP — Áreas de Atuação e Ano" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Concorrência Unesp 2026" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HIAE" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HOS BOS" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Santa Casa de Limeira" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Concorrência SES-RJ 2026" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Relação candidato vaga UERJ 202" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Programas mais concorridos – UE" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Relação Candidato Vaga Residênc1" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UNICAMP — Concorrência AMP 2025" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PSU-ES SUL" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hospital Evangélico de Vila Vel" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Instituto do Câncer do Ceará – " sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Secretaria Municipal de Saúde d" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UFPA" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Enare — Acesso Direto" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Enare — Pré-Requisito" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Enare — Área de Atuação" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Enare — Ano Adicional" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Enare — Quais as mais concorrid" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hospital Santa Rita" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Relação candidato vaga residênc" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="USP-SP — Acesso Direto" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="USP-SP — Pré-Requisito" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="USP-SP — Pré-Requisito – Especi" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="USP-SP — Áreas de Atuação e Ano" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Concorrência Unesp 2026" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HIAE" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HOS BOS" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Santa Casa de Limeira" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Concorrência SES-RJ 2026" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Relação candidato vaga UERJ 202" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Programas mais concorridos – UE" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Relação Candidato Vaga Residênc1" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UNICAMP — Concorrência AMP 2025" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PSU-ES SUL" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hospital Evangélico de Vila Vel" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Instituto do Câncer do Ceará – " sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Secretaria Municipal de Saúde d" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UFPA" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Enare — Acesso Direto" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Enare — Pré-Requisito" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Enare — Área de Atuação" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Enare — Ano Adicional" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Enare — Quais as mais concorrid" sheetId="36" state="visible" r:id="rId36"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7396,6 +7397,399 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PROGRAMA</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>VAGAS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>INSCRITOS</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>CONCORRÊNCIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Anestesiologia</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Cirurgia Geral</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Clínica Médica</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Infectologia</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Medicina Intensivo Adulto</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Ortopedia e Traumatologia</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Pediatria</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Radiologia e Diagnóstico por Imagem</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Cardiologia</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Cirurgia Oncológica</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Cirurgia Vascular</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Coloproctologia</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Ecocardiografia</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Gastroenterologia</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Neonatologia</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Oncologia Clínica</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7601,7 +7995,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8302,7 +8696,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8453,7 +8847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8890,7 +9284,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9833,7 +10227,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10732,7 +11126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10985,91 +11379,6 @@
       <c r="D11" t="inlineStr">
         <is>
           <t>44,37</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Especialidade</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Inscritos</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Vagas</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Cand/Vaga</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Oftalmologia</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>705</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>88,12</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Otorrinolaringologia</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>235</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>78,33</t>
         </is>
       </c>
     </row>
@@ -11675,6 +11984,91 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Especialidade</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Inscritos</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Vagas</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Cand/Vaga</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Oftalmologia</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>705</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>88,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Otorrinolaringologia</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>78,33</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12106,7 +12500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13853,7 +14247,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15060,7 +15454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15266,7 +15660,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18793,7 +19187,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -25076,7 +25470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -25500,7 +25894,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -25871,7 +26265,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -26102,223 +26496,6 @@
       <c r="D10" t="inlineStr">
         <is>
           <t>19</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Programa</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Vagas</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Inscritos</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Concorrência</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Anestesiologia</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>149</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>74,5</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Cirurgia Geral</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>173</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>34,6</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Clínica Médica</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>227</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>22,7</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Coloproctologia</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5,5</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Ginecologia e Obstetrícia</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>176</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Medicina de Família e Comunidade</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>342</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>17,1</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Neonatologia</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1,33</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Ortopedia e Traumatologia</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>19,5</t>
         </is>
       </c>
     </row>
@@ -27672,6 +27849,223 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Programa</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Vagas</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Inscritos</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Concorrência</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Anestesiologia</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>74,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Cirurgia Geral</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34,6</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Clínica Médica</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22,7</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Coloproctologia</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Ginecologia e Obstetrícia</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Medicina de Família e Comunidade</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Neonatologia</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Ortopedia e Traumatologia</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19,5</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28037,7 +28431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -28760,7 +29154,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -29307,7 +29701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -30448,7 +30842,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -30995,7 +31389,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/site/downloads/concorrencia_2026.xlsx
+++ b/site/downloads/concorrencia_2026.xlsx
@@ -19,33 +19,35 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HONPAR" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hospital Pequeno Príncipe" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hospital Santa Rita" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Relação candidato vaga residênc" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="USP-SP — Acesso Direto" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="USP-SP — Pré-Requisito" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="USP-SP — Pré-Requisito – Especi" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="USP-SP — Áreas de Atuação e Ano" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Concorrência Unesp 2026" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HIAE" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HOS BOS" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Santa Casa de Limeira" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Concorrência SES-RJ 2026" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Relação candidato vaga UERJ 202" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Programas mais concorridos – UE" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Relação Candidato Vaga Residênc1" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UNICAMP — Concorrência AMP 2025" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PSU-ES SUL" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hospital Evangélico de Vila Vel" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quais os programas mais concorr" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PSU-MG — Concorrência completa " sheetId="30" state="visible" r:id="rId30"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Concorrência completa PSU-GO 20" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Instituto do Câncer do Ceará – " sheetId="32" state="visible" r:id="rId32"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Secretaria Municipal de Saúde d" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UFPA" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Enare — Acesso Direto" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Enare — Pré-Requisito" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Enare — Área de Atuação" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Enare — Ano Adicional" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Enare — Quais as mais concorrid" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="USP-RP" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Relação candidato vaga residênc" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="USP-SP — Acesso Direto" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="USP-SP — Pré-Requisito" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="USP-SP — Pré-Requisito – Especi" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="USP-SP — Áreas de Atuação e Ano" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Concorrência Unesp 2026" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HIAE" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HOS BOS" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Santa Casa de Limeira" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Concorrência SES-RJ 2026" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Relação candidato vaga UERJ 202" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Programas mais concorridos – UE" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Relação Candidato Vaga Residênc1" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UNICAMP — Concorrência AMP 2025" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PSU-ES SUL" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hospital Evangélico de Vila Vel" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quais os programas mais concorr" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PSU-MG — Concorrência completa " sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hospital Sírio-Libanês" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Concorrência completa PSU-GO 20" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Instituto do Câncer do Ceará – " sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Secretaria Municipal de Saúde d" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UFPA" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Enare — Acesso Direto" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Enare — Pré-Requisito" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Enare — Área de Atuação" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Enare — Ano Adicional" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Enare — Quais as mais concorrid" sheetId="41" state="visible" r:id="rId41"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7793,6 +7795,1719 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D77"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ÁREA</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>CANDIDATOS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>VAGAS</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>CANDIDATO/VAGA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ALERGIA E IMUNOLOGIA</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2,50</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ALERGIA E IMUNOLOGIA PEDIÁTRICA</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5,50</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ANESTESIOLOGIA</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ANGIORRADIOLOGIA E CIRURGIA ENDOVASCULAR</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CARDIOLOGIA</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CARDIOLOGIA PEDIÁTRICA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CIRURGIA CARDIOVASCULAR</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CIRURGIA CRÂNIO-MAXILO-FACIAL</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CIRURGIA DA MÃO</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CIRURGIA DE CABEÇA E PESCOÇO</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CIRURGIA DO APARELHO DIGESTIVO</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CIRURGIA DO TRAUMA</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0,50</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CIRURGIA GERAL</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>413</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>27,53</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CIRURGIA GERAL – PROGRAMA AVANÇADO</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0,50</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CIRURGIA PEDIATRICA</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CIRURGIA PLÁSTICA</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>23,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>CIRURGIA TORÁCICA</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CIRURGIA VASCULAR</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>CLÍNICA MÉDICA</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>510</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>15,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>CLÍNICA MÉDICA (ANO ADICONAL)</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>COLOPROCTOLOGIA</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>DERMATOLOGIA</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>34,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>DOR</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ECOCARDIOGRAFIA</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>EMERGÊNCIA PEDIÁTRICA</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ENDOCRINOLOGIA E METABOLOGIA</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>14,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ENDOCRINOLOGIA PEDIÁTRICA</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9,50</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ENDOSCOPIA</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6,50</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ENDOSCOPIA GINECOLOGICA</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>10,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>GASTROENTEROLOGIA</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>GASTROENTEROLOGIA PEDIÁTRICA</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>GENÉTICA MÉDICA</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>GERIATRIA</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7,60</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>GINECOLOGIA E OBSTETRÍCIA (ANO ADICIONAL)</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>HEMATOLOGIA E HEMOTERAPIA</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6,40</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>HEMATOLOGIA E HEMOTERAPIA PEDIÁTRICA</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>HEMODINÂMICA E CARDIOLOGIA INTERVENCIONISTA</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>INFECTOLOGIA</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>8,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>MASTOLOGIA</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>MEDICINA DE EMERGÊNCIA</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6,63</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>MEDICINA DE FAMÍLIA E COMUNIDADE</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3,20</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>MEDICINA DE FAMÍLIA E COMUNIDADE – GESTÃO E PRECEPTORIA</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>MEDICINA DO SONO</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>MEDICINA FETAL</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>MEDICINA FÍSICA E REABILITAÇÃO</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>12,50</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>MEDICINA INTENSIVA</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>MEDICINA INTENSIVA PEDIÁTRICA</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>MEDICINA PALIATIVA</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>NEFROLOGIA</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3,78</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>NEFROLOGIA PEDIÁTRICA</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>NEONATOLOGIA</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>NEUROCIRURGIA</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>45,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>NEUROLOGIA</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>16,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>NEUROLOGIA PEDIÁTRICA</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>8,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>NUTROLOGIA</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3,50</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>OBSTETRÍCIA E GINECOLOGIA</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>21,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>OFTALMOLOGIA</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>33,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>ONCOLOGIA CLÍNICA</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>ONCOLOGIA PEDIÁTRICA</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1,50</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>ORTOPEDIA E TRAUMATOLOGIA</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>14,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>OTORRINOLARINGOLOGIA</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>35,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>PATOLOGIA</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>8,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>PEDIATRIA</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>11,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>PNEUMOLOGIA</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>7,50</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>PNEUMOLOGIA PEDIÁTRICA</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>PSIQUIATRIA</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>20,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>PSIQUIATRIA DA INFANCIA E DA ADOLESCÊNCIA</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>RADIOLOGIA E DIAGNÓSTICO POR IMAGEM</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>10,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>RADIOTERAPIA</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>REPRODUÇÃO ASSISTIDA</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>8,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>REUMATOLOGIA</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>5,20</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>REUMATOLOGIA PEDIÁTRICA</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>SEXOLOGIA</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>4,50</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>TRANSPLANTE DE CORNEA</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>4,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>TRANSPLANTE DE MEDULA ÓSSEA</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>UROLOGIA</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>10,00</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7998,7 +9713,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8699,7 +10414,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8850,7 +10565,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9287,7 +11002,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10230,7 +11945,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11121,267 +12836,6 @@
       <c r="D40" t="inlineStr">
         <is>
           <t>10.00</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>PROGRAMA</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>VAGAS DISPONÍVEIS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>INSCRITOS</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>CONCORRÊNCIA</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Cirurgia Geral</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>793</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>132,67</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Psiquiatria</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>390</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>97,5</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Neurologia</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>255</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Ginecologia e Obstetrícia</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>645</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>80,62</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Clínica Médica</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>812</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>73,81</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Anestesiologia</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>426</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Ortopedia e Traumatologia</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>245</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>61,25</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Radiologia e Diagnóstico por Imagem</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>290</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>48,33</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Cardiologia</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>45,67</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Pediatria</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>355</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>44,37</t>
         </is>
       </c>
     </row>
@@ -11987,6 +13441,267 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PROGRAMA</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>VAGAS DISPONÍVEIS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>INSCRITOS</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>CONCORRÊNCIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Cirurgia Geral</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>793</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>132,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Psiquiatria</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>390</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>97,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Neurologia</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Ginecologia e Obstetrícia</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>645</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>80,62</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Clínica Médica</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>812</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>73,81</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Anestesiologia</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>426</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Ortopedia e Traumatologia</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>61,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Radiologia e Diagnóstico por Imagem</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>48,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Cardiologia</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>45,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Pediatria</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>44,37</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12066,7 +13781,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12503,7 +14218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14250,7 +15965,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15457,7 +17172,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15663,7 +17378,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19190,7 +20905,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -25473,7 +27188,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -25897,7 +27612,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -26260,382 +27975,6 @@
       <c r="D16" t="inlineStr">
         <is>
           <t>3,5</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Instituição</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Especialidade</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Candidato/Vagas</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Hospital Santa Mônica</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Cirurgia Geral</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>103</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Santa Casa de Misericórdia de Goiânia</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Cirurgia Geral</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>88,67</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Fundação Banco de Olhos de Goiás FUBOG</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Oftalmologia</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>84,75</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Hospital das Clínicas da UFG</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Cirurgia Geral</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>83,67</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Universidade Evangélica de Goiás / UniEVANGÉLICA</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Cirurgia Geral</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Hospital e Maternidade Dona Iris</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Ginecologia e Obstetrícia</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>72,5</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Associação Animus Curae</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Oftalmologia</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>71,5</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Hospital das Clínicas da UFG</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Psiquiatria</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Hospital e Maternidade Dona Iris</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Pediatria</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>65,25</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Ipo-Instituto de Cirurgia Plástica e Oftalmologia – Hospital Premium</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Pediatria</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Hospital Santa Helena</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Anestesiologia</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Universidade Evangélica de Goiás/UniEVANGÉLICA</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Psiquiatria</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>59,5</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Santa Casa de Misericórdia de Goiânia</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Anestesiologia</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Hospital das Clínicas da UFG</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Ginecologia e Obstetrícia</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>58,75</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Universidade de Rio Verde – UniRV</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Cirurgia Geral</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>58,5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Universidade Evangélica de Goiás / UniEVANGÉLICA</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Ginecologia e Obstetrícia</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Hospital das Clínicas da UFG</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Anestesiologia</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Ipo-Instituto de Cirurgia Plástica e Oftalmologia – Hospital Premium</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Ginecologia e Obstetrícia</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Universidade Evangélica de Goiás / UniEVANGÉLICA</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Anestesiologia</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Hospital Espírita Eurípedes Barsanulfo</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Psiquiatria</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>53,5</t>
         </is>
       </c>
     </row>
@@ -27989,6 +29328,382 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Instituição</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Especialidade</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Candidato/Vagas</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Hospital Santa Mônica</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Cirurgia Geral</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Santa Casa de Misericórdia de Goiânia</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Cirurgia Geral</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>88,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Fundação Banco de Olhos de Goiás FUBOG</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Oftalmologia</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>84,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Hospital das Clínicas da UFG</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cirurgia Geral</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>83,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Universidade Evangélica de Goiás / UniEVANGÉLICA</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cirurgia Geral</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Hospital e Maternidade Dona Iris</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ginecologia e Obstetrícia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>72,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Associação Animus Curae</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Oftalmologia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>71,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Hospital das Clínicas da UFG</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Psiquiatria</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Hospital e Maternidade Dona Iris</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Pediatria</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>65,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Ipo-Instituto de Cirurgia Plástica e Oftalmologia – Hospital Premium</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Pediatria</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Hospital Santa Helena</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Anestesiologia</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Universidade Evangélica de Goiás/UniEVANGÉLICA</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Psiquiatria</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>59,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Santa Casa de Misericórdia de Goiânia</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Anestesiologia</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Hospital das Clínicas da UFG</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Ginecologia e Obstetrícia</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>58,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Universidade de Rio Verde – UniRV</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Cirurgia Geral</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>58,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Universidade Evangélica de Goiás / UniEVANGÉLICA</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Ginecologia e Obstetrícia</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Hospital das Clínicas da UFG</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Anestesiologia</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Ipo-Instituto de Cirurgia Plástica e Oftalmologia – Hospital Premium</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Ginecologia e Obstetrícia</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Universidade Evangélica de Goiás / UniEVANGÉLICA</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Anestesiologia</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Hospital Espírita Eurípedes Barsanulfo</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Psiquiatria</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>53,5</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F485"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -43498,7 +45213,550 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PROGRAMA</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>VAGAS DISPONÍVEIS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>INSCRITOS</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>CONCORRÊNCIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Admnistração em Saúde</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Anestesiologia*</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>498</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>55,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Cardiologia</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22,83</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Cirurgia Geral</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Clínica Médica</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>380</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>63,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Dermatologia</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>387</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Dor</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Endoscopia</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Ergometria</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Ginecologia e Obstetrícia</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>67,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Mastologia</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Medicina de Família e Comunidade</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Medicina Intensiva</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Neurologia</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>62,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Oncologia Clínica – Brasília</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>14,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Oncologia Clínica – São Paulo</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>24,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Pediatria</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>36,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Radiologia e Diagnóstico por Imagem</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Radioterapia – Brasília</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Radioterapia – São Paulo</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Transplante de Medula Óssea – Brasília</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Transplante de Medula Óssea – São Paulo</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Treineiro</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>–</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -46761,7 +49019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -47000,7 +49258,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -47217,7 +49475,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -47588,7 +49846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -48303,1694 +50561,6 @@
       <c r="D32" t="inlineStr">
         <is>
           <t>3,9</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>PROGRAMA</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>TOTAL DE VAGAS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>INSCRITOS</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>CONCORRÊNCIA</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Alergia e Imunologia</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Cardiologia</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>159</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>707</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4,45</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Cirurgia da Mão</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7,27</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Cirurgia de Cabeça e Pescoço</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1,79</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Cirurgia do Aparelho Digestivo</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1,93</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Cirurgia Oncológica</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1,76</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Cirurgia Pediátrica</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Cirurgia Plástica</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>678</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>11,11</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Cirurgia Torácica</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3,75</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Cirurgia Vascular</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>220</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3,06</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Coloproctologia</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>4,84</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Endocrinologia e Metabologia</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>595</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>7,17</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Endoscopia</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>136</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>4,53</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Gastroenterologia</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>422</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>5,86</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Geriatria</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>293</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>5,86</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Hematologia e Hemoterapia</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>149</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>3,63</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Mastologia</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>93</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2,33</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Nefrologia</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>148</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1,9</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Nutrologia</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Oncologia Clínica</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>251</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>3,75</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Pneumologia</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>165</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>3,67</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Reumatologia</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>188</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>3,08</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Urologia</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>307</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>4,04</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D51"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>PROGRAMA</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>TOTAL DE VAGAS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>INSCRITOS</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>CONCORRÊNCIA</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Administração em Saúde</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2,3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Alergia e Imunologia Pediátrica</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4,1</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Angiorradiologia e Cirurgia Endovascular</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1,4</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Atendimento ao Queimado</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1,7</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Cardiologia Pediátrica</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2,9</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Cirurgia Bariátrica</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0,7</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Cirurgia Crânio-Maxilo-Facial</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Cirurgia do Trauma</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0,7</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Cirurgia Videolaparoscópica</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Citopatologia</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0,3</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Dor</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>4,7</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Ecocardiografia</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3,5</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Ecografia Vascular com Doppler</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1,3</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Eletrofisiologia Clínica Invasiva</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>4,8</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Emergência Pediátrica</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1,4</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Endocrinologia Pediátrica</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>115</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>4,6</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Endoscopia Digestiva</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2,5</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Endoscopia Ginecológica</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>167</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>7,3</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Endoscopia Respiratória</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0,8</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Ergometria</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Foniatria</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Gastroenterologia Pediátrica</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2,3</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Hansenologia</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2,5</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Hematologia e Hemoterapia Pediátrica</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1,8</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Hemodinâmica e Cardiologia Intervencionista</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>3,2</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Hepatologia</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0,8</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Infectologia Hospitalar</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>1,5</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Infectologia Pediátrica</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>1,4</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Medicina do Adolescente</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Medicina Fetal</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>4,7</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Medicina Intensiva Pediátrica</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>1,3</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Medicina Paliativa</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>2,5</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Medicina do Sono</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>1,6</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Nefrologia Pediátrica</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>2,5</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Neonatologia</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>146</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>119</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0,8</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Neurofisiologia Clínica</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>2,3</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Neurologia Pediátrica</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>317</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>13,2</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Nutrição Parenteral e Enteral</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Nutrologia Pediátrica</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0,3</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Oncologia Pediátrica</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>1,3</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Pneumologia Pediátrica</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>2,9</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Psicogeriatria</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>1,8</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Psicoterapia</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>3,5</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Psiquiatria da Infância e Adolescência</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>3,4</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Psiquiatria Forense</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>4,3</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Reprodução Assistida</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>10,5</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Reumatologia Pediátrica</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>1,7</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Transplante de Fígado – R3</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Transplante de Medula Óssea</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>2,5</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Ultrassonografia em Ginecologia e Obstetrícia</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>2,8</t>
         </is>
       </c>
     </row>
@@ -50026,7 +50596,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>NSCRITOS</t>
+          <t>INSCRITOS</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -50038,506 +50608,506 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Cardiologia Cardio-Oncologia</t>
+          <t>Alergia e Imunologia</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cardiologia R3</t>
+          <t>Cardiologia</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>159</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>707</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>4,45</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cirurgia de Cabeça e Pescoço – R3</t>
+          <t>Cirurgia da Mão</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7,27</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Cirurgia do Aparelho Digestivo em Transplante de Fígado – R4</t>
+          <t>Cirurgia de Cabeça e Pescoço</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1,79</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cirurgia Oncológica – R4</t>
+          <t>Cirurgia do Aparelho Digestivo</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>81</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1,93</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Cirurgia Plástica</t>
+          <t>Cirurgia Oncológica</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>74</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1,76</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Cirurgia Torácica</t>
+          <t>Cirurgia Pediátrica</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>66</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Clínica Médica</t>
+          <t>Cirurgia Plástica</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>678</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>11,11</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Gastroenterologia R3 – Com Ênfase em Doenças do Fígado</t>
+          <t>Cirurgia Torácica</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3,75</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ginecologia e Obstetrícia R4</t>
+          <t>Cirurgia Vascular</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>72</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>220</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>3,06</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Homeopatia R3</t>
+          <t>Coloproctologia</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>150</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4,84</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Medicina de Família e Comunidade – Saúde Indígena</t>
+          <t>Endocrinologia e Metabologia</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>83</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>595</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7,17</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Medicina de Família e Comunidade – Saúde Mental</t>
+          <t>Endoscopia</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>136</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4,53</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Medicina de Família e Comunidade R3</t>
+          <t>Gastroenterologia</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>72</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>422</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>5,86</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Neurologia</t>
+          <t>Geriatria</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>50</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>293</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5,86</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Ortopedia e Traumatologia R4</t>
+          <t>Hematologia e Hemoterapia</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>41</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>149</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4,3</t>
+          <t>3,63</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Otorrinolaringologia – R4</t>
+          <t>Mastologia</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>93</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2,33</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Patologia R4</t>
+          <t>Nefrologia</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>78</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>148</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>1,9</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Radiologia e Diagnóstico por Imagem R4</t>
+          <t>Nutrologia</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0,75</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Transplante – Pediatria R3</t>
+          <t>Oncologia Clínica</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>67</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>251</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>3,75</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Transplante de Córnea</t>
+          <t>Pneumologia</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>165</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>3,67</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Transplante de Rim – Nefrologia R3</t>
+          <t>Reumatologia</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>188</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>3,08</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Transplante de Rim – Urologia</t>
+          <t>Urologia</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>76</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>307</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4,04</t>
         </is>
       </c>
     </row>
@@ -50552,7 +51122,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50563,15 +51133,20 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>COLOCAÇÃO</t>
+          <t>PROGRAMA</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>PROGRAMA</t>
+          <t>TOTAL DE VAGAS</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>INSCRITOS</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>CONCORRÊNCIA</t>
         </is>
@@ -50580,170 +51155,1100 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1º</t>
+          <t>Administração em Saúde</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MEDICINA ESPORTIVA</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>59,7</t>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2,3</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2º</t>
+          <t>Alergia e Imunologia Pediátrica</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OTORRINOLARINGOLOGIA</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>51,3</t>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4,1</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3º</t>
+          <t>Angiorradiologia e Cirurgia Endovascular</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NEUROCIRURGIA</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1,4</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4º</t>
+          <t>Atendimento ao Queimado</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OFTALMOLOGIA</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>39,1</t>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1,7</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5º</t>
+          <t>Cardiologia Pediátrica</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DERMATOLOGIA</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>36,6</t>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2,9</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6º</t>
+          <t>Cirurgia Bariátrica</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GINECOLOGIA E OBSTETRÍCIA R4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0,7</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>7º</t>
+          <t>Cirurgia Crânio-Maxilo-Facial</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PSIQUIATRIA</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>30,9</t>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8º</t>
+          <t>Cirurgia do Trauma</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NEUROLOGIA</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>27,8</t>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0,7</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>9º</t>
+          <t>Cirurgia Videolaparoscópica</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ANESTESIOLOGIA</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>26,3</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10º</t>
+          <t>Citopatologia</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MEDICINA DO TRABALHO</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>26,1</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Dor</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4,7</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Ecocardiografia</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Ecografia Vascular com Doppler</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Eletrofisiologia Clínica Invasiva</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Emergência Pediátrica</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Endocrinologia Pediátrica</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4,6</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Endoscopia Digestiva</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Endoscopia Ginecológica</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Endoscopia Respiratória</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Ergometria</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Foniatria</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Gastroenterologia Pediátrica</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Hansenologia</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Hematologia e Hemoterapia Pediátrica</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Hemodinâmica e Cardiologia Intervencionista</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Hepatologia</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Infectologia Hospitalar</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Infectologia Pediátrica</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Medicina do Adolescente</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Medicina Fetal</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4,7</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Medicina Intensiva Pediátrica</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Medicina Paliativa</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Medicina do Sono</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1,6</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Nefrologia Pediátrica</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Neonatologia</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Neurofisiologia Clínica</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Neurologia Pediátrica</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>13,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Nutrição Parenteral e Enteral</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Nutrologia Pediátrica</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Oncologia Pediátrica</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Pneumologia Pediátrica</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Psicogeriatria</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Psicoterapia</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Psiquiatria da Infância e Adolescência</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Psiquiatria Forense</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Reprodução Assistida</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>10,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Reumatologia Pediátrica</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1,7</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Transplante de Fígado – R3</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Transplante de Medula Óssea</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Ultrassonografia em Ginecologia e Obstetrícia</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2,8</t>
         </is>
       </c>
     </row>
@@ -51233,6 +52738,759 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PROGRAMA</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>TOTAL DE VAGAS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NSCRITOS</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>CONCORRÊNCIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Cardiologia Cardio-Oncologia</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Cardiologia R3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Cirurgia de Cabeça e Pescoço – R3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Cirurgia do Aparelho Digestivo em Transplante de Fígado – R4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Cirurgia Oncológica – R4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Cirurgia Plástica</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Cirurgia Torácica</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Clínica Médica</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Gastroenterologia R3 – Com Ênfase em Doenças do Fígado</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Ginecologia e Obstetrícia R4</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Homeopatia R3</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Medicina de Família e Comunidade – Saúde Indígena</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Medicina de Família e Comunidade – Saúde Mental</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Medicina de Família e Comunidade R3</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Neurologia</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Ortopedia e Traumatologia R4</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Otorrinolaringologia – R4</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Patologia R4</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Radiologia e Diagnóstico por Imagem R4</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Transplante – Pediatria R3</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Transplante de Córnea</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Transplante de Rim – Nefrologia R3</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Transplante de Rim – Urologia</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>COLOCAÇÃO</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PROGRAMA</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>CONCORRÊNCIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1º</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MEDICINA ESPORTIVA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>59,7</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2º</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>OTORRINOLARINGOLOGIA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>51,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3º</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>NEUROCIRURGIA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4º</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>OFTALMOLOGIA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>39,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5º</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DERMATOLOGIA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>36,6</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6º</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>GINECOLOGIA E OBSTETRÍCIA R4</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7º</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>PSIQUIATRIA</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>30,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8º</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>NEUROLOGIA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>27,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9º</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ANESTESIOLOGIA</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>26,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10º</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>MEDICINA DO TRABALHO</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>26,1</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
